--- a/Project/ControlTable.xlsx
+++ b/Project/ControlTable.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>Operations</t>
   </si>
@@ -123,6 +123,15 @@
   </si>
   <si>
     <t>100</t>
+  </si>
+  <si>
+    <t>Mem2Reg</t>
+  </si>
+  <si>
+    <t>ALUsrc</t>
+  </si>
+  <si>
+    <t>RegDst</t>
   </si>
 </sst>
 </file>
@@ -461,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -477,9 +486,10 @@
     <col min="7" max="7" width="4.6640625" style="5" customWidth="1"/>
     <col min="8" max="8" width="3.88671875" style="5" customWidth="1"/>
     <col min="9" max="9" width="8.88671875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -501,8 +511,17 @@
       <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -530,8 +549,11 @@
       <c r="I2" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
@@ -559,8 +581,11 @@
       <c r="I3" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
@@ -588,8 +613,11 @@
       <c r="I4" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -617,8 +645,11 @@
       <c r="I5" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
@@ -646,8 +677,11 @@
       <c r="I6" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>22</v>
       </c>
@@ -675,8 +709,11 @@
       <c r="I7" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>23</v>
       </c>
@@ -704,8 +741,11 @@
       <c r="I8" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>24</v>
       </c>
@@ -733,8 +773,11 @@
       <c r="I9" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>25</v>
       </c>
@@ -762,8 +805,11 @@
       <c r="I10" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
@@ -791,8 +837,11 @@
       <c r="I11" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
@@ -818,6 +867,9 @@
         <v>0</v>
       </c>
       <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="K12" s="5">
         <v>0</v>
       </c>
     </row>

--- a/Project/ControlTable.xlsx
+++ b/Project/ControlTable.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>Operations</t>
   </si>
@@ -132,6 +132,12 @@
   </si>
   <si>
     <t>RegDst</t>
+  </si>
+  <si>
+    <t>Str/MemRead</t>
+  </si>
+  <si>
+    <t>Ld/MemWrite</t>
   </si>
 </sst>
 </file>
@@ -470,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -487,9 +493,10 @@
     <col min="8" max="8" width="3.88671875" style="5" customWidth="1"/>
     <col min="9" max="9" width="8.88671875" style="5" customWidth="1"/>
     <col min="11" max="11" width="9.5546875" customWidth="1"/>
+    <col min="14" max="15" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -520,8 +527,14 @@
       <c r="M1" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -552,8 +565,20 @@
       <c r="K2" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L2" s="5">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
@@ -584,8 +609,20 @@
       <c r="K3" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L3" s="5">
+        <v>1</v>
+      </c>
+      <c r="M3" s="5">
+        <v>1</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
@@ -616,8 +653,20 @@
       <c r="K4" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -648,8 +697,20 @@
       <c r="K5" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
@@ -680,8 +741,20 @@
       <c r="K6" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>22</v>
       </c>
@@ -712,8 +785,20 @@
       <c r="K7" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>23</v>
       </c>
@@ -744,8 +829,20 @@
       <c r="K8" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L8" s="5">
+        <v>1</v>
+      </c>
+      <c r="M8" s="5">
+        <v>1</v>
+      </c>
+      <c r="N8" s="5">
+        <v>0</v>
+      </c>
+      <c r="O8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>24</v>
       </c>
@@ -776,8 +873,20 @@
       <c r="K9" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L9" s="5">
+        <v>0</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0</v>
+      </c>
+      <c r="O9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>25</v>
       </c>
@@ -808,8 +917,20 @@
       <c r="K10" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0</v>
+      </c>
+      <c r="N10" s="5">
+        <v>0</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
@@ -840,8 +961,20 @@
       <c r="K11" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L11" s="5">
+        <v>0</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5">
+        <v>0</v>
+      </c>
+      <c r="O11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
@@ -870,6 +1003,18 @@
         <v>0</v>
       </c>
       <c r="K12" s="5">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
+        <v>1</v>
+      </c>
+      <c r="M12" s="5">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5">
+        <v>1</v>
+      </c>
+      <c r="O12" s="5">
         <v>0</v>
       </c>
     </row>

--- a/Project/ControlTable.xlsx
+++ b/Project/ControlTable.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t>Operations</t>
   </si>
@@ -138,6 +138,15 @@
   </si>
   <si>
     <t>Ld/MemWrite</t>
+  </si>
+  <si>
+    <t>WriteEnable</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>Jump</t>
   </si>
 </sst>
 </file>
@@ -476,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -492,11 +501,12 @@
     <col min="7" max="7" width="4.6640625" style="5" customWidth="1"/>
     <col min="8" max="8" width="3.88671875" style="5" customWidth="1"/>
     <col min="9" max="9" width="8.88671875" style="5" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" customWidth="1"/>
-    <col min="14" max="15" width="12.88671875" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" style="5" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" customWidth="1"/>
+    <col min="15" max="16" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -518,23 +528,32 @@
       <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="J1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="Q1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -562,7 +581,7 @@
       <c r="I2" s="5">
         <v>1</v>
       </c>
-      <c r="K2" s="5">
+      <c r="J2" s="5">
         <v>0</v>
       </c>
       <c r="L2" s="5">
@@ -577,8 +596,17 @@
       <c r="O2" s="5">
         <v>0</v>
       </c>
+      <c r="P2" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>0</v>
+      </c>
+      <c r="R2" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
@@ -606,23 +634,32 @@
       <c r="I3" s="5">
         <v>1</v>
       </c>
-      <c r="K3" s="5">
-        <v>0</v>
+      <c r="J3" s="5">
+        <v>1</v>
       </c>
       <c r="L3" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" s="5">
         <v>1</v>
       </c>
       <c r="N3" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" s="5">
         <v>0</v>
       </c>
+      <c r="P3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>0</v>
+      </c>
+      <c r="R3" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
@@ -650,8 +687,8 @@
       <c r="I4" s="5">
         <v>1</v>
       </c>
-      <c r="K4" s="5">
-        <v>0</v>
+      <c r="J4" s="5">
+        <v>1</v>
       </c>
       <c r="L4" s="5">
         <v>0</v>
@@ -665,8 +702,17 @@
       <c r="O4" s="5">
         <v>0</v>
       </c>
+      <c r="P4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>0</v>
+      </c>
+      <c r="R4" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -694,8 +740,8 @@
       <c r="I5" s="5">
         <v>1</v>
       </c>
-      <c r="K5" s="5">
-        <v>0</v>
+      <c r="J5" s="5">
+        <v>1</v>
       </c>
       <c r="L5" s="5">
         <v>0</v>
@@ -709,8 +755,17 @@
       <c r="O5" s="5">
         <v>0</v>
       </c>
+      <c r="P5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>0</v>
+      </c>
+      <c r="R5" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
@@ -738,7 +793,7 @@
       <c r="I6" s="5">
         <v>0</v>
       </c>
-      <c r="K6" s="5">
+      <c r="J6" s="5">
         <v>0</v>
       </c>
       <c r="L6" s="5">
@@ -753,8 +808,17 @@
       <c r="O6" s="5">
         <v>0</v>
       </c>
+      <c r="P6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>1</v>
+      </c>
+      <c r="R6" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>22</v>
       </c>
@@ -782,8 +846,8 @@
       <c r="I7" s="5">
         <v>1</v>
       </c>
-      <c r="K7" s="5">
-        <v>0</v>
+      <c r="J7" s="5">
+        <v>1</v>
       </c>
       <c r="L7" s="5">
         <v>0</v>
@@ -797,8 +861,17 @@
       <c r="O7" s="5">
         <v>0</v>
       </c>
+      <c r="P7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>0</v>
+      </c>
+      <c r="R7" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>23</v>
       </c>
@@ -826,7 +899,7 @@
       <c r="I8" s="5">
         <v>1</v>
       </c>
-      <c r="K8" s="5">
+      <c r="J8" s="5">
         <v>1</v>
       </c>
       <c r="L8" s="5">
@@ -836,13 +909,22 @@
         <v>1</v>
       </c>
       <c r="N8" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="5">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="P8" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>0</v>
+      </c>
+      <c r="R8" s="5">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>24</v>
       </c>
@@ -870,7 +952,7 @@
       <c r="I9" s="5">
         <v>0</v>
       </c>
-      <c r="K9" s="5">
+      <c r="J9" s="5">
         <v>0</v>
       </c>
       <c r="L9" s="5">
@@ -885,8 +967,17 @@
       <c r="O9" s="5">
         <v>0</v>
       </c>
+      <c r="P9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>0</v>
+      </c>
+      <c r="R9" s="5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>25</v>
       </c>
@@ -914,8 +1005,8 @@
       <c r="I10" s="5">
         <v>1</v>
       </c>
-      <c r="K10" s="5">
-        <v>0</v>
+      <c r="J10" s="5">
+        <v>1</v>
       </c>
       <c r="L10" s="5">
         <v>0</v>
@@ -929,8 +1020,17 @@
       <c r="O10" s="5">
         <v>0</v>
       </c>
+      <c r="P10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>0</v>
+      </c>
+      <c r="R10" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
@@ -958,8 +1058,8 @@
       <c r="I11" s="5">
         <v>1</v>
       </c>
-      <c r="K11" s="5">
-        <v>0</v>
+      <c r="J11" s="5">
+        <v>1</v>
       </c>
       <c r="L11" s="5">
         <v>0</v>
@@ -973,8 +1073,17 @@
       <c r="O11" s="5">
         <v>0</v>
       </c>
+      <c r="P11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>0</v>
+      </c>
+      <c r="R11" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
@@ -1002,19 +1111,28 @@
       <c r="I12" s="5">
         <v>0</v>
       </c>
-      <c r="K12" s="5">
+      <c r="J12" s="5">
         <v>0</v>
       </c>
       <c r="L12" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="5">
+        <v>1</v>
+      </c>
+      <c r="P12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>0</v>
+      </c>
+      <c r="R12" s="5">
         <v>0</v>
       </c>
     </row>

--- a/Project/ControlTable.xlsx
+++ b/Project/ControlTable.xlsx
@@ -485,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -502,11 +502,11 @@
     <col min="8" max="8" width="3.88671875" style="5" customWidth="1"/>
     <col min="9" max="9" width="8.88671875" style="5" customWidth="1"/>
     <col min="10" max="10" width="10.77734375" style="5" customWidth="1"/>
-    <col min="12" max="12" width="9.5546875" customWidth="1"/>
-    <col min="15" max="16" width="12.88671875" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" customWidth="1"/>
+    <col min="14" max="15" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -531,29 +531,29 @@
       <c r="J1" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="L1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R1" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -584,6 +584,9 @@
       <c r="J2" s="5">
         <v>0</v>
       </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
       <c r="L2" s="5">
         <v>0</v>
       </c>
@@ -602,11 +605,8 @@
       <c r="Q2" s="5">
         <v>0</v>
       </c>
-      <c r="R2" s="5">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
@@ -637,14 +637,17 @@
       <c r="J3" s="5">
         <v>1</v>
       </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
       <c r="L3" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="5">
         <v>1</v>
       </c>
       <c r="N3" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" s="5">
         <v>0</v>
@@ -655,11 +658,8 @@
       <c r="Q3" s="5">
         <v>0</v>
       </c>
-      <c r="R3" s="5">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
@@ -690,6 +690,9 @@
       <c r="J4" s="5">
         <v>1</v>
       </c>
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
       <c r="L4" s="5">
         <v>0</v>
       </c>
@@ -708,11 +711,8 @@
       <c r="Q4" s="5">
         <v>0</v>
       </c>
-      <c r="R4" s="5">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -743,6 +743,9 @@
       <c r="J5" s="5">
         <v>1</v>
       </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
       <c r="L5" s="5">
         <v>0</v>
       </c>
@@ -761,11 +764,8 @@
       <c r="Q5" s="5">
         <v>0</v>
       </c>
-      <c r="R5" s="5">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
@@ -796,6 +796,9 @@
       <c r="J6" s="5">
         <v>0</v>
       </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
       <c r="L6" s="5">
         <v>0</v>
       </c>
@@ -809,16 +812,13 @@
         <v>0</v>
       </c>
       <c r="P6" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="5">
-        <v>1</v>
-      </c>
-      <c r="R6" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>22</v>
       </c>
@@ -849,6 +849,9 @@
       <c r="J7" s="5">
         <v>1</v>
       </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
       <c r="L7" s="5">
         <v>0</v>
       </c>
@@ -867,11 +870,8 @@
       <c r="Q7" s="5">
         <v>0</v>
       </c>
-      <c r="R7" s="5">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>23</v>
       </c>
@@ -902,6 +902,9 @@
       <c r="J8" s="5">
         <v>1</v>
       </c>
+      <c r="K8" s="5">
+        <v>1</v>
+      </c>
       <c r="L8" s="5">
         <v>1</v>
       </c>
@@ -909,22 +912,19 @@
         <v>1</v>
       </c>
       <c r="N8" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="5">
         <v>0</v>
       </c>
-      <c r="R8" s="5">
-        <v>0</v>
-      </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>24</v>
       </c>
@@ -955,6 +955,9 @@
       <c r="J9" s="5">
         <v>0</v>
       </c>
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
       <c r="L9" s="5">
         <v>0</v>
       </c>
@@ -971,13 +974,10 @@
         <v>0</v>
       </c>
       <c r="Q9" s="5">
-        <v>0</v>
-      </c>
-      <c r="R9" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>25</v>
       </c>
@@ -1008,6 +1008,9 @@
       <c r="J10" s="5">
         <v>1</v>
       </c>
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
       <c r="L10" s="5">
         <v>0</v>
       </c>
@@ -1026,11 +1029,8 @@
       <c r="Q10" s="5">
         <v>0</v>
       </c>
-      <c r="R10" s="5">
-        <v>0</v>
-      </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
@@ -1061,6 +1061,9 @@
       <c r="J11" s="5">
         <v>1</v>
       </c>
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
       <c r="L11" s="5">
         <v>0</v>
       </c>
@@ -1079,11 +1082,8 @@
       <c r="Q11" s="5">
         <v>0</v>
       </c>
-      <c r="R11" s="5">
-        <v>0</v>
-      </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
@@ -1114,25 +1114,25 @@
       <c r="J12" s="5">
         <v>0</v>
       </c>
+      <c r="K12" s="5">
+        <v>0</v>
+      </c>
       <c r="L12" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" s="5">
         <v>0</v>
       </c>
       <c r="Q12" s="5">
-        <v>0</v>
-      </c>
-      <c r="R12" s="5">
         <v>0</v>
       </c>
     </row>

--- a/Project/ControlTable.xlsx
+++ b/Project/ControlTable.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="44">
   <si>
     <t>Operations</t>
   </si>
@@ -147,6 +148,15 @@
   </si>
   <si>
     <t>Jump</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
   </si>
 </sst>
 </file>
@@ -209,7 +219,96 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="19">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -220,6 +319,32 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q12" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:Q12"/>
+  <tableColumns count="17">
+    <tableColumn id="1" name="OPcode" dataDxfId="16"/>
+    <tableColumn id="2" name="Operations" dataDxfId="15"/>
+    <tableColumn id="3" name="ALUop" dataDxfId="14"/>
+    <tableColumn id="4" name="Column1" dataDxfId="13"/>
+    <tableColumn id="5" name="Column2" dataDxfId="12"/>
+    <tableColumn id="6" name="Column3" dataDxfId="11"/>
+    <tableColumn id="7" name="Binv" dataDxfId="10"/>
+    <tableColumn id="8" name="Cin" dataDxfId="9"/>
+    <tableColumn id="9" name="WriteReg" dataDxfId="8"/>
+    <tableColumn id="10" name="WriteEnable" dataDxfId="7"/>
+    <tableColumn id="11" name="Mem2Reg" dataDxfId="6"/>
+    <tableColumn id="12" name="ALUsrc" dataDxfId="5"/>
+    <tableColumn id="13" name="RegDst" dataDxfId="4"/>
+    <tableColumn id="14" name="Str/MemRead" dataDxfId="3"/>
+    <tableColumn id="15" name="Ld/MemWrite" dataDxfId="2"/>
+    <tableColumn id="16" name="Branch" dataDxfId="1"/>
+    <tableColumn id="17" name="Jump" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -485,15 +610,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.21875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" style="4" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" style="5" customWidth="1"/>
     <col min="3" max="3" width="6.33203125" style="4" customWidth="1"/>
     <col min="4" max="4" width="2.77734375" style="5" customWidth="1"/>
@@ -1138,6 +1266,674 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="97" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" customWidth="1"/>
+    <col min="11" max="11" width="12.21875" customWidth="1"/>
+    <col min="14" max="14" width="16.21875" customWidth="1"/>
+    <col min="15" max="15" width="17.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0</v>
+      </c>
+      <c r="P2" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5">
+        <v>1</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
+        <v>1</v>
+      </c>
+      <c r="M3" s="5">
+        <v>1</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5">
+        <v>1</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1</v>
+      </c>
+      <c r="J7" s="5">
+        <v>1</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0</v>
+      </c>
+      <c r="P7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5">
+        <v>1</v>
+      </c>
+      <c r="L8" s="5">
+        <v>1</v>
+      </c>
+      <c r="M8" s="5">
+        <v>1</v>
+      </c>
+      <c r="N8" s="5">
+        <v>0</v>
+      </c>
+      <c r="O8" s="5">
+        <v>1</v>
+      </c>
+      <c r="P8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0</v>
+      </c>
+      <c r="O9" s="5">
+        <v>0</v>
+      </c>
+      <c r="P9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0</v>
+      </c>
+      <c r="N10" s="5">
+        <v>0</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0</v>
+      </c>
+      <c r="P10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5">
+        <v>0</v>
+      </c>
+      <c r="O11" s="5">
+        <v>0</v>
+      </c>
+      <c r="P11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
+        <v>1</v>
+      </c>
+      <c r="M12" s="5">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5">
+        <v>1</v>
+      </c>
+      <c r="O12" s="5">
+        <v>0</v>
+      </c>
+      <c r="P12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="64" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>